--- a/Excel/Práctica/Atajos en Excel.xlsx
+++ b/Excel/Práctica/Atajos en Excel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Atajos</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Elimina toda la fila o columna luego de seleccionada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL + “+”: </t>
+  </si>
+  <si>
+    <t>Inserta toda la fila o columna luego de seleccionada</t>
   </si>
 </sst>
 </file>
@@ -206,30 +212,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O25"/>
+  <dimension ref="B3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,303 +521,317 @@
     <col min="2" max="2" width="72.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="5" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="5" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="J20" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="J21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="J25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C25:H25"/>
+  <mergeCells count="20">
+    <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C26:H26"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
     <mergeCell ref="C5:N6"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -831,7 +848,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
+      <c r="A1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
